--- a/extdata/toyFiles/FROC/bad/incorrectCaseIDsInTP.xlsx
+++ b/extdata/toyFiles/FROC/bad/incorrectCaseIDsInTP.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/PyJafroc/extdata/toyFiles/FROC/bad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91F7DFB-9303-EC42-8455-A17B39055957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14847E0-E2DC-4341-8E86-242E31DD207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16860" yWindow="680" windowWidth="11180" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP" sheetId="3" r:id="rId1"/>
-    <sheet name="FP" sheetId="2" r:id="rId2"/>
+    <sheet name="LL" sheetId="3" r:id="rId1"/>
+    <sheet name="NL" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="10">
   <si>
     <t>CaseID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>ModalityID</t>
   </si>
   <si>
-    <t>FP_Rating</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -56,22 +53,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>TP_Rating</t>
+    <t>LLRating</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Paradigm</t>
-  </si>
-  <si>
-    <t>FROC</t>
-  </si>
-  <si>
-    <t>FCTRL</t>
+    <t>NLRating</t>
   </si>
 </sst>
 </file>
@@ -557,7 +542,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,15 +564,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -601,10 +586,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -618,10 +603,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>71</v>
@@ -635,10 +620,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
@@ -652,10 +637,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>73</v>
@@ -669,10 +654,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -686,10 +671,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>74</v>
@@ -703,10 +688,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
@@ -720,10 +705,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -737,10 +722,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -754,10 +739,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -771,10 +756,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>70</v>
@@ -788,10 +773,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>74</v>
@@ -805,10 +790,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>70</v>
@@ -822,10 +807,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>73</v>
@@ -839,10 +824,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>74</v>
@@ -856,10 +841,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>70</v>
@@ -873,10 +858,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>74</v>
@@ -890,10 +875,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>70</v>
@@ -907,10 +892,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>71</v>
@@ -938,7 +923,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,15 +942,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -976,10 +961,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -990,10 +975,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1004,10 +989,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1018,10 +1003,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1032,10 +1017,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1046,10 +1031,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1060,10 +1045,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1074,10 +1059,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1088,10 +1073,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1102,10 +1087,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1116,10 +1101,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1130,10 +1115,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1144,10 +1129,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1158,10 +1143,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>70</v>
@@ -1172,10 +1157,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>71</v>
@@ -1186,10 +1171,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1200,10 +1185,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1225,21 +1210,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1249,17 +1231,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1269,17 +1242,8 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1289,17 +1253,8 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1309,15 +1264,8 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>70</v>
       </c>
@@ -1327,15 +1275,8 @@
       <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>70</v>
       </c>
@@ -1345,15 +1286,8 @@
       <c r="C6" s="2">
         <v>0.5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1363,15 +1297,8 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1381,15 +1308,8 @@
       <c r="C8" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1399,15 +1319,8 @@
       <c r="C9" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1417,15 +1330,8 @@
       <c r="C10" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>73</v>
       </c>
@@ -1435,15 +1341,8 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>74</v>
       </c>
@@ -1453,105 +1352,71 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
